--- a/Code/test_Poly.xlsx
+++ b/Code/test_Poly.xlsx
@@ -27,18 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>词条名称</t>
   </si>
   <si>
-    <t>空间交会对接技术</t>
+    <t>流星</t>
   </si>
   <si>
-    <t>X-23</t>
-  </si>
-  <si>
-    <t>神舟</t>
+    <t>狂怒</t>
   </si>
 </sst>
 </file>
@@ -380,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -391,24 +388,19 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
